--- a/src/test/resource/Datasheets/EbayDataSheet.xlsx
+++ b/src/test/resource/Datasheets/EbayDataSheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasel\workspace\SundayLokiProject\src\test\resource\Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06A1C3D-18A0-4D7F-A552-06E3886CBBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ADFFDC-234D-4D9C-935A-AC7A6EE643B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16608" yWindow="1524" windowWidth="5736" windowHeight="11088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EbayDataSheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -406,7 +406,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
